--- a/docs/8547Saini/assignments/assignment1.xlsx
+++ b/docs/8547Saini/assignments/assignment1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donwen\WS\uwinds\uwinds\docs\8547Saini\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D36B31-7051-46CC-A4D8-88AACE20C3E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69BAC56-F0A0-4958-8EFF-4E9375D20D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,18 +386,18 @@
   <dimension ref="A1:K957"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/docs/8547Saini/assignments/assignment1.xlsx
+++ b/docs/8547Saini/assignments/assignment1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donwen\WS\uwinds\uwinds\docs\8547Saini\assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donwen.CORPDOM\WS\UWind\uwinds\docs\8547Saini\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69BAC56-F0A0-4958-8EFF-4E9375D20D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717A8D92-E90C-4681-BB6D-3B83EAC8C486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hashtable" sheetId="1" r:id="rId1"/>
+    <sheet name="Hashtables" sheetId="1" r:id="rId1"/>
+    <sheet name="Trees" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>i</t>
   </si>
@@ -42,10 +43,43 @@
     <t>Quad D</t>
   </si>
   <si>
-    <t>SCh I</t>
+    <t>SpCh I</t>
   </si>
   <si>
-    <t>SCh D</t>
+    <t>SpCh D</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>4.a</t>
+  </si>
+  <si>
+    <t>4.b</t>
+  </si>
+  <si>
+    <t>4.c</t>
+  </si>
+  <si>
+    <t>5.a</t>
+  </si>
+  <si>
+    <t>5.b</t>
+  </si>
+  <si>
+    <t>5.c</t>
+  </si>
+  <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>AVL</t>
+  </si>
+  <si>
+    <t>RedBlck</t>
+  </si>
+  <si>
+    <t>Splay</t>
   </si>
 </sst>
 </file>
@@ -93,14 +127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -385,525 +416,505 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K957"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>319779</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1268865</v>
-      </c>
-      <c r="D2" s="4">
-        <v>47119</v>
-      </c>
-      <c r="E2" s="3">
-        <v>5717</v>
-      </c>
-      <c r="F2" s="4">
-        <v>162255</v>
-      </c>
-      <c r="G2" s="3">
-        <v>5323</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>33712</v>
+      </c>
+      <c r="C2">
+        <v>12420</v>
+      </c>
+      <c r="D2">
+        <v>32727</v>
+      </c>
+      <c r="E2">
+        <v>6112</v>
+      </c>
+      <c r="F2">
+        <v>93055</v>
+      </c>
+      <c r="G2">
+        <v>4929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>94435</v>
-      </c>
-      <c r="C3" s="3">
-        <v>93055</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2365</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2365</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3351</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="B3">
+        <v>11040</v>
+      </c>
+      <c r="C3">
+        <v>7196</v>
+      </c>
+      <c r="D3">
+        <v>1873</v>
+      </c>
+      <c r="E3">
         <v>1380</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2464</v>
+      </c>
+      <c r="G3">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>852432</v>
-      </c>
-      <c r="C4" s="3">
-        <v>21292</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1626</v>
-      </c>
-      <c r="E4" s="3">
-        <v>985</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2365</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1183</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>110355</v>
+      </c>
+      <c r="C4">
+        <v>7343</v>
+      </c>
+      <c r="D4">
+        <v>37606</v>
+      </c>
+      <c r="E4">
+        <v>936</v>
+      </c>
+      <c r="F4">
+        <v>3795</v>
+      </c>
+      <c r="G4">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>26664</v>
-      </c>
-      <c r="C5" s="3">
-        <v>156414</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2267</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3425</v>
-      </c>
-      <c r="F5" s="4">
-        <v>5840</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="B5">
+        <v>18877</v>
+      </c>
+      <c r="C5">
+        <v>6530</v>
+      </c>
+      <c r="D5">
         <v>1010</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>739</v>
+      </c>
+      <c r="F5">
+        <v>1601</v>
+      </c>
+      <c r="G5">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>17164</v>
-      </c>
-      <c r="C6" s="3">
-        <v>22179</v>
-      </c>
-      <c r="D6" s="4">
-        <v>998</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1145</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1429</v>
-      </c>
-      <c r="G6" s="3">
-        <v>800</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>53501</v>
+      </c>
+      <c r="C6">
+        <v>2341</v>
+      </c>
+      <c r="D6">
+        <v>1121</v>
+      </c>
+      <c r="E6">
+        <v>837</v>
+      </c>
+      <c r="F6">
+        <v>1306</v>
+      </c>
+      <c r="G6">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>14311</v>
-      </c>
-      <c r="C7" s="3">
-        <v>13202</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2156</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3696</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1632</v>
-      </c>
-      <c r="G7" s="3">
-        <v>702</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3012</v>
+      </c>
+      <c r="C7">
+        <v>3135</v>
+      </c>
+      <c r="D7">
+        <v>2248</v>
+      </c>
+      <c r="E7">
+        <v>2636</v>
+      </c>
+      <c r="F7">
+        <v>1164</v>
+      </c>
+      <c r="G7">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>17145</v>
-      </c>
-      <c r="C8" s="3">
-        <v>22481</v>
-      </c>
-      <c r="D8" s="4">
-        <v>12540</v>
-      </c>
-      <c r="E8" s="3">
-        <v>985</v>
-      </c>
-      <c r="F8" s="4">
-        <v>22333</v>
-      </c>
-      <c r="G8" s="3">
-        <v>449</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3376</v>
+      </c>
+      <c r="C8">
+        <v>2150</v>
+      </c>
+      <c r="D8">
+        <v>2760</v>
+      </c>
+      <c r="E8">
+        <v>431</v>
+      </c>
+      <c r="F8">
+        <v>13252</v>
+      </c>
+      <c r="G8">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>63203</v>
-      </c>
-      <c r="C9" s="3">
-        <v>14733</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1534</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1209</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>706</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4018</v>
+      </c>
+      <c r="C9">
+        <v>2542</v>
+      </c>
+      <c r="D9">
+        <v>999</v>
+      </c>
+      <c r="E9">
+        <v>696</v>
+      </c>
+      <c r="F9">
+        <v>5141</v>
+      </c>
+      <c r="G9">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>7465</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10077</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1256</v>
-      </c>
-      <c r="E10" s="3">
-        <v>466</v>
-      </c>
-      <c r="F10" s="4">
-        <v>7510</v>
-      </c>
-      <c r="G10" s="3">
-        <v>315</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1286</v>
+      </c>
+      <c r="C10">
+        <v>679</v>
+      </c>
+      <c r="D10">
+        <v>1133</v>
+      </c>
+      <c r="E10">
+        <v>408</v>
+      </c>
+      <c r="F10">
+        <v>4336</v>
+      </c>
+      <c r="G10">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>7844</v>
-      </c>
-      <c r="C11" s="3">
-        <v>8012</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2562</v>
-      </c>
-      <c r="E11" s="3">
-        <v>331</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2496</v>
-      </c>
-      <c r="G11" s="3">
-        <v>350</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1569</v>
+      </c>
+      <c r="C11">
+        <v>4079</v>
+      </c>
+      <c r="D11">
+        <v>1026</v>
+      </c>
+      <c r="E11">
+        <v>820</v>
+      </c>
+      <c r="F11">
+        <v>2938</v>
+      </c>
+      <c r="G11">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>9736</v>
-      </c>
-      <c r="C12" s="3">
-        <v>8894</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1054</v>
-      </c>
-      <c r="E12" s="3">
-        <v>231</v>
-      </c>
-      <c r="F12" s="4">
-        <v>3356</v>
-      </c>
-      <c r="G12" s="3">
-        <v>341</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>5240</v>
+      </c>
+      <c r="C12">
+        <v>550</v>
+      </c>
+      <c r="D12">
+        <v>1009</v>
+      </c>
+      <c r="E12">
+        <v>255</v>
+      </c>
+      <c r="F12">
+        <v>2317</v>
+      </c>
+      <c r="G12">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
-        <v>18295</v>
-      </c>
-      <c r="C13" s="3">
-        <v>9011</v>
-      </c>
-      <c r="D13" s="4">
-        <v>720</v>
-      </c>
-      <c r="E13" s="3">
-        <v>222</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2104</v>
-      </c>
-      <c r="G13" s="3">
-        <v>274</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2148</v>
+      </c>
+      <c r="C13">
+        <v>530</v>
+      </c>
+      <c r="D13">
+        <v>1515</v>
+      </c>
+      <c r="E13">
+        <v>1511</v>
+      </c>
+      <c r="F13">
+        <v>9599</v>
+      </c>
+      <c r="G13">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>14260</v>
-      </c>
-      <c r="C14" s="3">
-        <v>10646</v>
-      </c>
-      <c r="D14" s="4">
-        <v>762</v>
-      </c>
-      <c r="E14" s="3">
-        <v>203</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2844</v>
-      </c>
-      <c r="G14" s="3">
-        <v>307</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>540</v>
+      </c>
+      <c r="C14">
+        <v>248</v>
+      </c>
+      <c r="D14">
+        <v>433</v>
+      </c>
+      <c r="E14">
+        <v>438</v>
+      </c>
+      <c r="F14">
+        <v>2461</v>
+      </c>
+      <c r="G14">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
-        <v>18422</v>
-      </c>
-      <c r="C15" s="3">
-        <v>11844</v>
-      </c>
-      <c r="D15" s="4">
-        <v>459</v>
-      </c>
-      <c r="E15" s="3">
-        <v>215</v>
-      </c>
-      <c r="F15" s="4">
-        <v>779</v>
-      </c>
-      <c r="G15" s="3">
-        <v>269</v>
-      </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>547</v>
+      </c>
+      <c r="C15">
+        <v>209</v>
+      </c>
+      <c r="D15">
+        <v>202</v>
+      </c>
+      <c r="E15">
+        <v>93</v>
+      </c>
+      <c r="F15">
+        <v>428</v>
+      </c>
+      <c r="G15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>23989</v>
-      </c>
-      <c r="C16" s="3">
-        <v>13068</v>
-      </c>
-      <c r="D16" s="4">
-        <v>464</v>
-      </c>
-      <c r="E16" s="3">
-        <v>241</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1115</v>
-      </c>
-      <c r="G16" s="3">
-        <v>322</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1072</v>
+      </c>
+      <c r="C16">
+        <v>306</v>
+      </c>
+      <c r="D16">
+        <v>278</v>
+      </c>
+      <c r="E16">
+        <v>161</v>
+      </c>
+      <c r="F16">
+        <v>958</v>
+      </c>
+      <c r="G16">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
-        <v>32834</v>
-      </c>
-      <c r="C17" s="3">
-        <v>15118</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1224</v>
-      </c>
-      <c r="E17" s="3">
-        <v>213</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1965</v>
-      </c>
-      <c r="G17" s="3">
-        <v>254</v>
-      </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1093</v>
+      </c>
+      <c r="C17">
+        <v>645</v>
+      </c>
+      <c r="D17">
+        <v>726</v>
+      </c>
+      <c r="E17">
+        <v>276</v>
+      </c>
+      <c r="F17">
+        <v>1813</v>
+      </c>
+      <c r="G17">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
-        <v>22597</v>
-      </c>
-      <c r="C18" s="3">
-        <v>18637</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1128</v>
-      </c>
-      <c r="E18" s="3">
-        <v>230</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1351</v>
-      </c>
-      <c r="G18" s="3">
-        <v>234</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1200</v>
+      </c>
+      <c r="C18">
+        <v>640</v>
+      </c>
+      <c r="D18">
+        <v>770</v>
+      </c>
+      <c r="E18">
+        <v>212</v>
+      </c>
+      <c r="F18">
+        <v>1171</v>
+      </c>
+      <c r="G18">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
-        <v>26485</v>
-      </c>
-      <c r="C19" s="3">
-        <v>18343</v>
-      </c>
-      <c r="D19" s="4">
-        <v>894</v>
-      </c>
-      <c r="E19" s="3">
-        <v>236</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1100</v>
-      </c>
-      <c r="G19" s="3">
-        <v>244</v>
-      </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1637</v>
+      </c>
+      <c r="C19">
+        <v>673</v>
+      </c>
+      <c r="D19">
+        <v>873</v>
+      </c>
+      <c r="E19">
+        <v>261</v>
+      </c>
+      <c r="F19">
+        <v>1667</v>
+      </c>
+      <c r="G19">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
-        <v>41665</v>
-      </c>
-      <c r="C20" s="3">
-        <v>22487</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1075</v>
-      </c>
-      <c r="E20" s="3">
-        <v>287</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1840</v>
-      </c>
-      <c r="G20" s="3">
-        <v>251</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2289</v>
+      </c>
+      <c r="C20">
+        <v>826</v>
+      </c>
+      <c r="D20">
+        <v>1345</v>
+      </c>
+      <c r="E20">
+        <v>296</v>
+      </c>
+      <c r="F20">
+        <v>1697</v>
+      </c>
+      <c r="G20">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
-        <v>55114</v>
-      </c>
-      <c r="C21" s="3">
-        <v>25591</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1223</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="B21">
+        <v>1413</v>
+      </c>
+      <c r="C21">
+        <v>940</v>
+      </c>
+      <c r="D21">
+        <v>1126</v>
+      </c>
+      <c r="E21">
+        <v>322</v>
+      </c>
+      <c r="F21">
+        <v>1538</v>
+      </c>
+      <c r="G21">
         <v>306</v>
       </c>
-      <c r="F21" s="4">
-        <v>1787</v>
-      </c>
-      <c r="G21" s="3">
-        <v>277</v>
-      </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -916,7 +927,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -929,7 +940,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -942,7 +953,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -955,7 +966,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -968,7 +979,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -981,7 +992,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -994,7 +1005,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1007,7 +1018,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1020,7 +1031,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1033,7 +1044,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1046,7 +1057,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1059,7 +1070,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1072,7 +1083,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1085,7 +1096,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1098,7 +1109,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1111,7 +1122,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1124,7 +1135,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1137,7 +1148,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1150,7 +1161,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1163,7 +1174,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1176,7 +1187,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1189,7 +1200,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1202,7 +1213,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1215,7 +1226,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1228,7 +1239,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1241,7 +1252,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1254,7 +1265,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1267,7 +1278,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1280,7 +1291,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1293,7 +1304,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1306,7 +1317,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1319,7 +1330,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1332,7 +1343,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1345,7 +1356,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1358,7 +1369,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1371,7 +1382,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1384,7 +1395,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1397,7 +1408,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1410,7 +1421,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1423,7 +1434,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1436,7 +1447,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1449,7 +1460,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1462,7 +1473,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1475,7 +1486,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1488,7 +1499,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1501,7 +1512,7 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1514,7 +1525,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1527,7 +1538,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1540,7 +1551,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1553,7 +1564,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1566,7 +1577,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1579,7 +1590,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1592,7 +1603,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1605,7 +1616,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1618,7 +1629,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1631,7 +1642,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1644,7 +1655,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1657,7 +1668,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1670,7 +1681,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1683,7 +1694,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1696,7 +1707,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1709,7 +1720,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1722,7 +1733,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1735,7 +1746,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1748,7 +1759,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1761,7 +1772,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1774,7 +1785,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1787,7 +1798,7 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1800,7 +1811,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1813,7 +1824,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1826,7 +1837,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1839,7 +1850,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1852,7 +1863,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1865,7 +1876,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1878,7 +1889,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1891,7 +1902,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1904,7 +1915,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1917,7 +1928,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1930,7 +1941,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1943,7 +1954,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1956,7 +1967,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1969,7 +1980,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1982,7 +1993,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1995,7 +2006,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2008,7 +2019,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2021,7 +2032,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2034,7 +2045,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2047,7 +2058,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2060,7 +2071,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2073,7 +2084,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2086,7 +2097,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2099,7 +2110,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2112,7 +2123,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2125,7 +2136,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2138,7 +2149,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2151,7 +2162,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2164,7 +2175,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2177,7 +2188,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2190,7 +2201,7 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2203,7 +2214,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2216,7 +2227,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2229,7 +2240,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2242,7 +2253,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2255,7 +2266,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2268,7 +2279,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2281,7 +2292,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2294,7 +2305,7 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2307,7 +2318,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2320,7 +2331,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2333,7 +2344,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2346,7 +2357,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2359,7 +2370,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2372,7 +2383,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2385,7 +2396,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2398,7 +2409,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2411,7 +2422,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2424,7 +2435,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2437,7 +2448,7 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2450,7 +2461,7 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2463,7 +2474,7 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2476,7 +2487,7 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2489,7 +2500,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2502,7 +2513,7 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2515,7 +2526,7 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2528,7 +2539,7 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2541,7 +2552,7 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2554,7 +2565,7 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2567,7 +2578,7 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2580,7 +2591,7 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2593,7 +2604,7 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2606,7 +2617,7 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2619,7 +2630,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2632,7 +2643,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2645,7 +2656,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2658,7 +2669,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2671,7 +2682,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2684,7 +2695,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2697,7 +2708,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2710,7 +2721,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2723,7 +2734,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2736,7 +2747,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2749,7 +2760,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2762,7 +2773,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2775,7 +2786,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2788,7 +2799,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2801,7 +2812,7 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2814,7 +2825,7 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2827,7 +2838,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2840,7 +2851,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2853,7 +2864,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2866,7 +2877,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2879,7 +2890,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2892,7 +2903,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2905,7 +2916,7 @@
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2918,7 +2929,7 @@
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2931,7 +2942,7 @@
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2944,7 +2955,7 @@
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2957,7 +2968,7 @@
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -2970,7 +2981,7 @@
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2983,7 +2994,7 @@
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2996,7 +3007,7 @@
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -3009,7 +3020,7 @@
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -3022,7 +3033,7 @@
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -3035,7 +3046,7 @@
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -3048,7 +3059,7 @@
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -3061,7 +3072,7 @@
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -3074,7 +3085,7 @@
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -3087,7 +3098,7 @@
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -3100,7 +3111,7 @@
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -3113,7 +3124,7 @@
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -3126,7 +3137,7 @@
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -3139,7 +3150,7 @@
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -3152,7 +3163,7 @@
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -3165,7 +3176,7 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -3178,7 +3189,7 @@
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -3191,7 +3202,7 @@
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -3204,7 +3215,7 @@
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -3217,7 +3228,7 @@
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -3230,7 +3241,7 @@
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3243,7 +3254,7 @@
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3256,7 +3267,7 @@
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -3269,7 +3280,7 @@
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3282,7 +3293,7 @@
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3295,7 +3306,7 @@
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3308,7 +3319,7 @@
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3321,7 +3332,7 @@
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3334,7 +3345,7 @@
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3347,7 +3358,7 @@
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3360,7 +3371,7 @@
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3373,7 +3384,7 @@
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3386,7 +3397,7 @@
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3399,7 +3410,7 @@
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3412,7 +3423,7 @@
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3425,7 +3436,7 @@
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3438,7 +3449,7 @@
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3451,7 +3462,7 @@
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3464,7 +3475,7 @@
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3477,7 +3488,7 @@
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3490,7 +3501,7 @@
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -3503,7 +3514,7 @@
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -3516,7 +3527,7 @@
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -3529,7 +3540,7 @@
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -3542,7 +3553,7 @@
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -3555,7 +3566,7 @@
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -3568,7 +3579,7 @@
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -3581,7 +3592,7 @@
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -3594,7 +3605,7 @@
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -3607,7 +3618,7 @@
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -3620,7 +3631,7 @@
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -3633,7 +3644,7 @@
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -3646,7 +3657,7 @@
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -3659,7 +3670,7 @@
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -3672,7 +3683,7 @@
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -3685,7 +3696,7 @@
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -3698,7 +3709,7 @@
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -3711,7 +3722,7 @@
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -3724,7 +3735,7 @@
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -3737,7 +3748,7 @@
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -3750,7 +3761,7 @@
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -3763,7 +3774,7 @@
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -3776,7 +3787,7 @@
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -3789,7 +3800,7 @@
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -3802,7 +3813,7 @@
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -3815,7 +3826,7 @@
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -3828,7 +3839,7 @@
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -3841,7 +3852,7 @@
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -3854,7 +3865,7 @@
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -3867,7 +3878,7 @@
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -3880,7 +3891,7 @@
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -3893,7 +3904,7 @@
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -3906,7 +3917,7 @@
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -3919,7 +3930,7 @@
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -3932,7 +3943,7 @@
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -3945,7 +3956,7 @@
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -3958,7 +3969,7 @@
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -3971,7 +3982,7 @@
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -3984,7 +3995,7 @@
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -3997,7 +4008,7 @@
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -4010,7 +4021,7 @@
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -4023,7 +4034,7 @@
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -4036,7 +4047,7 @@
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -4049,7 +4060,7 @@
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -4062,7 +4073,7 @@
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -4075,7 +4086,7 @@
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -4088,7 +4099,7 @@
       <c r="J266" s="2"/>
       <c r="K266" s="2"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -4101,7 +4112,7 @@
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -4114,7 +4125,7 @@
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -4127,7 +4138,7 @@
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -4140,7 +4151,7 @@
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -4153,7 +4164,7 @@
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -4166,7 +4177,7 @@
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -4179,7 +4190,7 @@
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -4192,7 +4203,7 @@
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -4205,7 +4216,7 @@
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -4218,7 +4229,7 @@
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -4231,7 +4242,7 @@
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -4244,7 +4255,7 @@
       <c r="J278" s="2"/>
       <c r="K278" s="2"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -4257,7 +4268,7 @@
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -4270,7 +4281,7 @@
       <c r="J280" s="2"/>
       <c r="K280" s="2"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -4283,7 +4294,7 @@
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -4296,7 +4307,7 @@
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -4309,7 +4320,7 @@
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -4322,7 +4333,7 @@
       <c r="J284" s="2"/>
       <c r="K284" s="2"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -4335,7 +4346,7 @@
       <c r="J285" s="2"/>
       <c r="K285" s="2"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -4348,7 +4359,7 @@
       <c r="J286" s="2"/>
       <c r="K286" s="2"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -4361,7 +4372,7 @@
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -4374,7 +4385,7 @@
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -4387,7 +4398,7 @@
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -4400,7 +4411,7 @@
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -4413,7 +4424,7 @@
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -4426,7 +4437,7 @@
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -4439,7 +4450,7 @@
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -4452,7 +4463,7 @@
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -4465,7 +4476,7 @@
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -4478,7 +4489,7 @@
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -4491,7 +4502,7 @@
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -4504,7 +4515,7 @@
       <c r="J298" s="2"/>
       <c r="K298" s="2"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -4517,7 +4528,7 @@
       <c r="J299" s="2"/>
       <c r="K299" s="2"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -4530,7 +4541,7 @@
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -4543,7 +4554,7 @@
       <c r="J301" s="2"/>
       <c r="K301" s="2"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -4556,7 +4567,7 @@
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -4569,7 +4580,7 @@
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -4582,7 +4593,7 @@
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -4595,7 +4606,7 @@
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -4608,7 +4619,7 @@
       <c r="J306" s="2"/>
       <c r="K306" s="2"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -4621,7 +4632,7 @@
       <c r="J307" s="2"/>
       <c r="K307" s="2"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -4634,7 +4645,7 @@
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -4647,7 +4658,7 @@
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -4660,7 +4671,7 @@
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -4673,7 +4684,7 @@
       <c r="J311" s="2"/>
       <c r="K311" s="2"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -4686,7 +4697,7 @@
       <c r="J312" s="2"/>
       <c r="K312" s="2"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -4699,7 +4710,7 @@
       <c r="J313" s="2"/>
       <c r="K313" s="2"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -4712,7 +4723,7 @@
       <c r="J314" s="2"/>
       <c r="K314" s="2"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -4725,7 +4736,7 @@
       <c r="J315" s="2"/>
       <c r="K315" s="2"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -4738,7 +4749,7 @@
       <c r="J316" s="2"/>
       <c r="K316" s="2"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -4751,7 +4762,7 @@
       <c r="J317" s="2"/>
       <c r="K317" s="2"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -4764,7 +4775,7 @@
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -4777,7 +4788,7 @@
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -4790,7 +4801,7 @@
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -4803,7 +4814,7 @@
       <c r="J321" s="2"/>
       <c r="K321" s="2"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -4816,7 +4827,7 @@
       <c r="J322" s="2"/>
       <c r="K322" s="2"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -4829,7 +4840,7 @@
       <c r="J323" s="2"/>
       <c r="K323" s="2"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -4842,7 +4853,7 @@
       <c r="J324" s="2"/>
       <c r="K324" s="2"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -4855,7 +4866,7 @@
       <c r="J325" s="2"/>
       <c r="K325" s="2"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -4868,7 +4879,7 @@
       <c r="J326" s="2"/>
       <c r="K326" s="2"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -4881,7 +4892,7 @@
       <c r="J327" s="2"/>
       <c r="K327" s="2"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -4894,7 +4905,7 @@
       <c r="J328" s="2"/>
       <c r="K328" s="2"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -4907,7 +4918,7 @@
       <c r="J329" s="2"/>
       <c r="K329" s="2"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -4920,7 +4931,7 @@
       <c r="J330" s="2"/>
       <c r="K330" s="2"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -4933,7 +4944,7 @@
       <c r="J331" s="2"/>
       <c r="K331" s="2"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -4946,7 +4957,7 @@
       <c r="J332" s="2"/>
       <c r="K332" s="2"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -4959,7 +4970,7 @@
       <c r="J333" s="2"/>
       <c r="K333" s="2"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -4972,7 +4983,7 @@
       <c r="J334" s="2"/>
       <c r="K334" s="2"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -4985,7 +4996,7 @@
       <c r="J335" s="2"/>
       <c r="K335" s="2"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -4998,7 +5009,7 @@
       <c r="J336" s="2"/>
       <c r="K336" s="2"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -5011,7 +5022,7 @@
       <c r="J337" s="2"/>
       <c r="K337" s="2"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -5024,7 +5035,7 @@
       <c r="J338" s="2"/>
       <c r="K338" s="2"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -5037,7 +5048,7 @@
       <c r="J339" s="2"/>
       <c r="K339" s="2"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -5050,7 +5061,7 @@
       <c r="J340" s="2"/>
       <c r="K340" s="2"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -5063,7 +5074,7 @@
       <c r="J341" s="2"/>
       <c r="K341" s="2"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -5076,7 +5087,7 @@
       <c r="J342" s="2"/>
       <c r="K342" s="2"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -5089,7 +5100,7 @@
       <c r="J343" s="2"/>
       <c r="K343" s="2"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -5102,7 +5113,7 @@
       <c r="J344" s="2"/>
       <c r="K344" s="2"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -5115,7 +5126,7 @@
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -5128,7 +5139,7 @@
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -5141,7 +5152,7 @@
       <c r="J347" s="2"/>
       <c r="K347" s="2"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -5154,7 +5165,7 @@
       <c r="J348" s="2"/>
       <c r="K348" s="2"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -5167,7 +5178,7 @@
       <c r="J349" s="2"/>
       <c r="K349" s="2"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -5180,7 +5191,7 @@
       <c r="J350" s="2"/>
       <c r="K350" s="2"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -5193,7 +5204,7 @@
       <c r="J351" s="2"/>
       <c r="K351" s="2"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -5206,7 +5217,7 @@
       <c r="J352" s="2"/>
       <c r="K352" s="2"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -5219,7 +5230,7 @@
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -5232,7 +5243,7 @@
       <c r="J354" s="2"/>
       <c r="K354" s="2"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -5245,7 +5256,7 @@
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -5258,7 +5269,7 @@
       <c r="J356" s="2"/>
       <c r="K356" s="2"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -5271,7 +5282,7 @@
       <c r="J357" s="2"/>
       <c r="K357" s="2"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -5284,7 +5295,7 @@
       <c r="J358" s="2"/>
       <c r="K358" s="2"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -5297,7 +5308,7 @@
       <c r="J359" s="2"/>
       <c r="K359" s="2"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -5310,7 +5321,7 @@
       <c r="J360" s="2"/>
       <c r="K360" s="2"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -5323,7 +5334,7 @@
       <c r="J361" s="2"/>
       <c r="K361" s="2"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -5336,7 +5347,7 @@
       <c r="J362" s="2"/>
       <c r="K362" s="2"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -5349,7 +5360,7 @@
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -5362,7 +5373,7 @@
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -5375,7 +5386,7 @@
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -5388,7 +5399,7 @@
       <c r="J366" s="2"/>
       <c r="K366" s="2"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -5401,7 +5412,7 @@
       <c r="J367" s="2"/>
       <c r="K367" s="2"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -5414,7 +5425,7 @@
       <c r="J368" s="2"/>
       <c r="K368" s="2"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -5427,7 +5438,7 @@
       <c r="J369" s="2"/>
       <c r="K369" s="2"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -5440,7 +5451,7 @@
       <c r="J370" s="2"/>
       <c r="K370" s="2"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -5453,7 +5464,7 @@
       <c r="J371" s="2"/>
       <c r="K371" s="2"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -5466,7 +5477,7 @@
       <c r="J372" s="2"/>
       <c r="K372" s="2"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -5479,7 +5490,7 @@
       <c r="J373" s="2"/>
       <c r="K373" s="2"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -5492,7 +5503,7 @@
       <c r="J374" s="2"/>
       <c r="K374" s="2"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -5505,7 +5516,7 @@
       <c r="J375" s="2"/>
       <c r="K375" s="2"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -5518,7 +5529,7 @@
       <c r="J376" s="2"/>
       <c r="K376" s="2"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -5531,7 +5542,7 @@
       <c r="J377" s="2"/>
       <c r="K377" s="2"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -5544,7 +5555,7 @@
       <c r="J378" s="2"/>
       <c r="K378" s="2"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -5557,7 +5568,7 @@
       <c r="J379" s="2"/>
       <c r="K379" s="2"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -5570,7 +5581,7 @@
       <c r="J380" s="2"/>
       <c r="K380" s="2"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -5583,7 +5594,7 @@
       <c r="J381" s="2"/>
       <c r="K381" s="2"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -5596,7 +5607,7 @@
       <c r="J382" s="2"/>
       <c r="K382" s="2"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -5609,7 +5620,7 @@
       <c r="J383" s="2"/>
       <c r="K383" s="2"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -5622,7 +5633,7 @@
       <c r="J384" s="2"/>
       <c r="K384" s="2"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -5635,7 +5646,7 @@
       <c r="J385" s="2"/>
       <c r="K385" s="2"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -5648,7 +5659,7 @@
       <c r="J386" s="2"/>
       <c r="K386" s="2"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -5661,7 +5672,7 @@
       <c r="J387" s="2"/>
       <c r="K387" s="2"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -5674,7 +5685,7 @@
       <c r="J388" s="2"/>
       <c r="K388" s="2"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -5687,7 +5698,7 @@
       <c r="J389" s="2"/>
       <c r="K389" s="2"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -5700,7 +5711,7 @@
       <c r="J390" s="2"/>
       <c r="K390" s="2"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -5713,7 +5724,7 @@
       <c r="J391" s="2"/>
       <c r="K391" s="2"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -5726,7 +5737,7 @@
       <c r="J392" s="2"/>
       <c r="K392" s="2"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -5739,7 +5750,7 @@
       <c r="J393" s="2"/>
       <c r="K393" s="2"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -5752,7 +5763,7 @@
       <c r="J394" s="2"/>
       <c r="K394" s="2"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -5765,7 +5776,7 @@
       <c r="J395" s="2"/>
       <c r="K395" s="2"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -5778,7 +5789,7 @@
       <c r="J396" s="2"/>
       <c r="K396" s="2"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -5791,7 +5802,7 @@
       <c r="J397" s="2"/>
       <c r="K397" s="2"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -5804,7 +5815,7 @@
       <c r="J398" s="2"/>
       <c r="K398" s="2"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -5817,7 +5828,7 @@
       <c r="J399" s="2"/>
       <c r="K399" s="2"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -5830,7 +5841,7 @@
       <c r="J400" s="2"/>
       <c r="K400" s="2"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -5843,7 +5854,7 @@
       <c r="J401" s="2"/>
       <c r="K401" s="2"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -5856,7 +5867,7 @@
       <c r="J402" s="2"/>
       <c r="K402" s="2"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -5869,7 +5880,7 @@
       <c r="J403" s="2"/>
       <c r="K403" s="2"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -5882,7 +5893,7 @@
       <c r="J404" s="2"/>
       <c r="K404" s="2"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -5895,7 +5906,7 @@
       <c r="J405" s="2"/>
       <c r="K405" s="2"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -5908,7 +5919,7 @@
       <c r="J406" s="2"/>
       <c r="K406" s="2"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -5921,7 +5932,7 @@
       <c r="J407" s="2"/>
       <c r="K407" s="2"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -5934,7 +5945,7 @@
       <c r="J408" s="2"/>
       <c r="K408" s="2"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -5947,7 +5958,7 @@
       <c r="J409" s="2"/>
       <c r="K409" s="2"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -5960,7 +5971,7 @@
       <c r="J410" s="2"/>
       <c r="K410" s="2"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -5973,7 +5984,7 @@
       <c r="J411" s="2"/>
       <c r="K411" s="2"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -5986,7 +5997,7 @@
       <c r="J412" s="2"/>
       <c r="K412" s="2"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -5999,7 +6010,7 @@
       <c r="J413" s="2"/>
       <c r="K413" s="2"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -6012,7 +6023,7 @@
       <c r="J414" s="2"/>
       <c r="K414" s="2"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -6025,7 +6036,7 @@
       <c r="J415" s="2"/>
       <c r="K415" s="2"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -6038,7 +6049,7 @@
       <c r="J416" s="2"/>
       <c r="K416" s="2"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -6051,7 +6062,7 @@
       <c r="J417" s="2"/>
       <c r="K417" s="2"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -6064,7 +6075,7 @@
       <c r="J418" s="2"/>
       <c r="K418" s="2"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -6077,7 +6088,7 @@
       <c r="J419" s="2"/>
       <c r="K419" s="2"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -6090,7 +6101,7 @@
       <c r="J420" s="2"/>
       <c r="K420" s="2"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -6103,7 +6114,7 @@
       <c r="J421" s="2"/>
       <c r="K421" s="2"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -6116,7 +6127,7 @@
       <c r="J422" s="2"/>
       <c r="K422" s="2"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -6129,7 +6140,7 @@
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -6142,7 +6153,7 @@
       <c r="J424" s="2"/>
       <c r="K424" s="2"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -6155,7 +6166,7 @@
       <c r="J425" s="2"/>
       <c r="K425" s="2"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -6168,7 +6179,7 @@
       <c r="J426" s="2"/>
       <c r="K426" s="2"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -6181,7 +6192,7 @@
       <c r="J427" s="2"/>
       <c r="K427" s="2"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -6194,7 +6205,7 @@
       <c r="J428" s="2"/>
       <c r="K428" s="2"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -6207,7 +6218,7 @@
       <c r="J429" s="2"/>
       <c r="K429" s="2"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -6220,7 +6231,7 @@
       <c r="J430" s="2"/>
       <c r="K430" s="2"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -6233,7 +6244,7 @@
       <c r="J431" s="2"/>
       <c r="K431" s="2"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -6246,7 +6257,7 @@
       <c r="J432" s="2"/>
       <c r="K432" s="2"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -6259,7 +6270,7 @@
       <c r="J433" s="2"/>
       <c r="K433" s="2"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -6272,7 +6283,7 @@
       <c r="J434" s="2"/>
       <c r="K434" s="2"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -6285,7 +6296,7 @@
       <c r="J435" s="2"/>
       <c r="K435" s="2"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -6298,7 +6309,7 @@
       <c r="J436" s="2"/>
       <c r="K436" s="2"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -6311,7 +6322,7 @@
       <c r="J437" s="2"/>
       <c r="K437" s="2"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -6324,7 +6335,7 @@
       <c r="J438" s="2"/>
       <c r="K438" s="2"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -6337,7 +6348,7 @@
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -6350,7 +6361,7 @@
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -6363,7 +6374,7 @@
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -6376,7 +6387,7 @@
       <c r="J442" s="2"/>
       <c r="K442" s="2"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -6389,7 +6400,7 @@
       <c r="J443" s="2"/>
       <c r="K443" s="2"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -6402,7 +6413,7 @@
       <c r="J444" s="2"/>
       <c r="K444" s="2"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -6415,7 +6426,7 @@
       <c r="J445" s="2"/>
       <c r="K445" s="2"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -6428,7 +6439,7 @@
       <c r="J446" s="2"/>
       <c r="K446" s="2"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -6441,7 +6452,7 @@
       <c r="J447" s="2"/>
       <c r="K447" s="2"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -6454,7 +6465,7 @@
       <c r="J448" s="2"/>
       <c r="K448" s="2"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -6467,7 +6478,7 @@
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -6480,7 +6491,7 @@
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -6493,7 +6504,7 @@
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -6506,7 +6517,7 @@
       <c r="J452" s="2"/>
       <c r="K452" s="2"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -6519,7 +6530,7 @@
       <c r="J453" s="2"/>
       <c r="K453" s="2"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -6532,7 +6543,7 @@
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -6545,7 +6556,7 @@
       <c r="J455" s="2"/>
       <c r="K455" s="2"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -6558,7 +6569,7 @@
       <c r="J456" s="2"/>
       <c r="K456" s="2"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -6571,7 +6582,7 @@
       <c r="J457" s="2"/>
       <c r="K457" s="2"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -6584,7 +6595,7 @@
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -6597,7 +6608,7 @@
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -6610,7 +6621,7 @@
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -6623,7 +6634,7 @@
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -6636,7 +6647,7 @@
       <c r="J462" s="2"/>
       <c r="K462" s="2"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -6649,7 +6660,7 @@
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -6662,7 +6673,7 @@
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -6675,7 +6686,7 @@
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -6688,7 +6699,7 @@
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -6701,7 +6712,7 @@
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -6714,7 +6725,7 @@
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -6727,7 +6738,7 @@
       <c r="J469" s="2"/>
       <c r="K469" s="2"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -6740,7 +6751,7 @@
       <c r="J470" s="2"/>
       <c r="K470" s="2"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -6753,7 +6764,7 @@
       <c r="J471" s="2"/>
       <c r="K471" s="2"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -6766,7 +6777,7 @@
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -6779,7 +6790,7 @@
       <c r="J473" s="2"/>
       <c r="K473" s="2"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -6792,7 +6803,7 @@
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -6805,7 +6816,7 @@
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -6818,7 +6829,7 @@
       <c r="J476" s="2"/>
       <c r="K476" s="2"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -6831,7 +6842,7 @@
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -6844,7 +6855,7 @@
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -6857,7 +6868,7 @@
       <c r="J479" s="2"/>
       <c r="K479" s="2"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -6870,7 +6881,7 @@
       <c r="J480" s="2"/>
       <c r="K480" s="2"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -6883,7 +6894,7 @@
       <c r="J481" s="2"/>
       <c r="K481" s="2"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -6896,7 +6907,7 @@
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -6909,7 +6920,7 @@
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -6922,7 +6933,7 @@
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -6935,7 +6946,7 @@
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -6948,7 +6959,7 @@
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -6961,7 +6972,7 @@
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -6974,7 +6985,7 @@
       <c r="J488" s="2"/>
       <c r="K488" s="2"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -6987,7 +6998,7 @@
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -7000,7 +7011,7 @@
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -7013,7 +7024,7 @@
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -7026,7 +7037,7 @@
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -7039,7 +7050,7 @@
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -7052,7 +7063,7 @@
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -7065,7 +7076,7 @@
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -7078,7 +7089,7 @@
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -7091,7 +7102,7 @@
       <c r="J497" s="2"/>
       <c r="K497" s="2"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -7104,7 +7115,7 @@
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -7117,7 +7128,7 @@
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -7130,7 +7141,7 @@
       <c r="J500" s="2"/>
       <c r="K500" s="2"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -7143,7 +7154,7 @@
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -7156,7 +7167,7 @@
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -7169,7 +7180,7 @@
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -7182,7 +7193,7 @@
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -7195,7 +7206,7 @@
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -7208,7 +7219,7 @@
       <c r="J506" s="2"/>
       <c r="K506" s="2"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -7221,7 +7232,7 @@
       <c r="J507" s="2"/>
       <c r="K507" s="2"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -7234,7 +7245,7 @@
       <c r="J508" s="2"/>
       <c r="K508" s="2"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -7247,7 +7258,7 @@
       <c r="J509" s="2"/>
       <c r="K509" s="2"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -7260,7 +7271,7 @@
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -7273,7 +7284,7 @@
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -7286,7 +7297,7 @@
       <c r="J512" s="2"/>
       <c r="K512" s="2"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -7299,7 +7310,7 @@
       <c r="J513" s="2"/>
       <c r="K513" s="2"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -7312,7 +7323,7 @@
       <c r="J514" s="2"/>
       <c r="K514" s="2"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -7325,7 +7336,7 @@
       <c r="J515" s="2"/>
       <c r="K515" s="2"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -7338,7 +7349,7 @@
       <c r="J516" s="2"/>
       <c r="K516" s="2"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -7351,7 +7362,7 @@
       <c r="J517" s="2"/>
       <c r="K517" s="2"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -7364,7 +7375,7 @@
       <c r="J518" s="2"/>
       <c r="K518" s="2"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -7377,7 +7388,7 @@
       <c r="J519" s="2"/>
       <c r="K519" s="2"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -7390,7 +7401,7 @@
       <c r="J520" s="2"/>
       <c r="K520" s="2"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -7403,7 +7414,7 @@
       <c r="J521" s="2"/>
       <c r="K521" s="2"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -7416,7 +7427,7 @@
       <c r="J522" s="2"/>
       <c r="K522" s="2"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -7429,7 +7440,7 @@
       <c r="J523" s="2"/>
       <c r="K523" s="2"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -7442,7 +7453,7 @@
       <c r="J524" s="2"/>
       <c r="K524" s="2"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -7455,7 +7466,7 @@
       <c r="J525" s="2"/>
       <c r="K525" s="2"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -7468,7 +7479,7 @@
       <c r="J526" s="2"/>
       <c r="K526" s="2"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -7481,7 +7492,7 @@
       <c r="J527" s="2"/>
       <c r="K527" s="2"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -7494,7 +7505,7 @@
       <c r="J528" s="2"/>
       <c r="K528" s="2"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -7507,7 +7518,7 @@
       <c r="J529" s="2"/>
       <c r="K529" s="2"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -7520,7 +7531,7 @@
       <c r="J530" s="2"/>
       <c r="K530" s="2"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -7533,7 +7544,7 @@
       <c r="J531" s="2"/>
       <c r="K531" s="2"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -7546,7 +7557,7 @@
       <c r="J532" s="2"/>
       <c r="K532" s="2"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -7559,7 +7570,7 @@
       <c r="J533" s="2"/>
       <c r="K533" s="2"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -7572,7 +7583,7 @@
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -7585,7 +7596,7 @@
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -7598,7 +7609,7 @@
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -7611,7 +7622,7 @@
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -7624,7 +7635,7 @@
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -7637,7 +7648,7 @@
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -7650,7 +7661,7 @@
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -7663,7 +7674,7 @@
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -7676,7 +7687,7 @@
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -7689,7 +7700,7 @@
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -7702,7 +7713,7 @@
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -7715,7 +7726,7 @@
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -7728,7 +7739,7 @@
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -7741,7 +7752,7 @@
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -7754,7 +7765,7 @@
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -7767,7 +7778,7 @@
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -7780,7 +7791,7 @@
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -7793,7 +7804,7 @@
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -7806,7 +7817,7 @@
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -7819,7 +7830,7 @@
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -7832,7 +7843,7 @@
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -7845,7 +7856,7 @@
       <c r="J555" s="2"/>
       <c r="K555" s="2"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -7858,7 +7869,7 @@
       <c r="J556" s="2"/>
       <c r="K556" s="2"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -7871,7 +7882,7 @@
       <c r="J557" s="2"/>
       <c r="K557" s="2"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -7884,7 +7895,7 @@
       <c r="J558" s="2"/>
       <c r="K558" s="2"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -7897,7 +7908,7 @@
       <c r="J559" s="2"/>
       <c r="K559" s="2"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -7910,7 +7921,7 @@
       <c r="J560" s="2"/>
       <c r="K560" s="2"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -7923,7 +7934,7 @@
       <c r="J561" s="2"/>
       <c r="K561" s="2"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -7936,7 +7947,7 @@
       <c r="J562" s="2"/>
       <c r="K562" s="2"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -7949,7 +7960,7 @@
       <c r="J563" s="2"/>
       <c r="K563" s="2"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -7962,7 +7973,7 @@
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -7975,7 +7986,7 @@
       <c r="J565" s="2"/>
       <c r="K565" s="2"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -7988,7 +7999,7 @@
       <c r="J566" s="2"/>
       <c r="K566" s="2"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -8001,7 +8012,7 @@
       <c r="J567" s="2"/>
       <c r="K567" s="2"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -8014,7 +8025,7 @@
       <c r="J568" s="2"/>
       <c r="K568" s="2"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -8027,7 +8038,7 @@
       <c r="J569" s="2"/>
       <c r="K569" s="2"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -8040,7 +8051,7 @@
       <c r="J570" s="2"/>
       <c r="K570" s="2"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -8053,7 +8064,7 @@
       <c r="J571" s="2"/>
       <c r="K571" s="2"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -8066,7 +8077,7 @@
       <c r="J572" s="2"/>
       <c r="K572" s="2"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -8079,7 +8090,7 @@
       <c r="J573" s="2"/>
       <c r="K573" s="2"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -8092,7 +8103,7 @@
       <c r="J574" s="2"/>
       <c r="K574" s="2"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -8105,7 +8116,7 @@
       <c r="J575" s="2"/>
       <c r="K575" s="2"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -8118,7 +8129,7 @@
       <c r="J576" s="2"/>
       <c r="K576" s="2"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -8131,7 +8142,7 @@
       <c r="J577" s="2"/>
       <c r="K577" s="2"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -8144,7 +8155,7 @@
       <c r="J578" s="2"/>
       <c r="K578" s="2"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -8157,7 +8168,7 @@
       <c r="J579" s="2"/>
       <c r="K579" s="2"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -8170,7 +8181,7 @@
       <c r="J580" s="2"/>
       <c r="K580" s="2"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -8183,7 +8194,7 @@
       <c r="J581" s="2"/>
       <c r="K581" s="2"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -8196,7 +8207,7 @@
       <c r="J582" s="2"/>
       <c r="K582" s="2"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -8209,7 +8220,7 @@
       <c r="J583" s="2"/>
       <c r="K583" s="2"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -8222,7 +8233,7 @@
       <c r="J584" s="2"/>
       <c r="K584" s="2"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -8235,7 +8246,7 @@
       <c r="J585" s="2"/>
       <c r="K585" s="2"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -8248,7 +8259,7 @@
       <c r="J586" s="2"/>
       <c r="K586" s="2"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -8261,7 +8272,7 @@
       <c r="J587" s="2"/>
       <c r="K587" s="2"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -8274,7 +8285,7 @@
       <c r="J588" s="2"/>
       <c r="K588" s="2"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -8287,7 +8298,7 @@
       <c r="J589" s="2"/>
       <c r="K589" s="2"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -8300,7 +8311,7 @@
       <c r="J590" s="2"/>
       <c r="K590" s="2"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -8313,7 +8324,7 @@
       <c r="J591" s="2"/>
       <c r="K591" s="2"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -8326,7 +8337,7 @@
       <c r="J592" s="2"/>
       <c r="K592" s="2"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -8339,7 +8350,7 @@
       <c r="J593" s="2"/>
       <c r="K593" s="2"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -8352,7 +8363,7 @@
       <c r="J594" s="2"/>
       <c r="K594" s="2"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -8365,7 +8376,7 @@
       <c r="J595" s="2"/>
       <c r="K595" s="2"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -8378,7 +8389,7 @@
       <c r="J596" s="2"/>
       <c r="K596" s="2"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -8391,7 +8402,7 @@
       <c r="J597" s="2"/>
       <c r="K597" s="2"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -8404,7 +8415,7 @@
       <c r="J598" s="2"/>
       <c r="K598" s="2"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -8417,7 +8428,7 @@
       <c r="J599" s="2"/>
       <c r="K599" s="2"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -8430,7 +8441,7 @@
       <c r="J600" s="2"/>
       <c r="K600" s="2"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -8443,7 +8454,7 @@
       <c r="J601" s="2"/>
       <c r="K601" s="2"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -8456,7 +8467,7 @@
       <c r="J602" s="2"/>
       <c r="K602" s="2"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -8469,7 +8480,7 @@
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -8482,7 +8493,7 @@
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -8495,7 +8506,7 @@
       <c r="J605" s="2"/>
       <c r="K605" s="2"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -8508,7 +8519,7 @@
       <c r="J606" s="2"/>
       <c r="K606" s="2"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -8521,7 +8532,7 @@
       <c r="J607" s="2"/>
       <c r="K607" s="2"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -8534,7 +8545,7 @@
       <c r="J608" s="2"/>
       <c r="K608" s="2"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -8547,7 +8558,7 @@
       <c r="J609" s="2"/>
       <c r="K609" s="2"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -8560,7 +8571,7 @@
       <c r="J610" s="2"/>
       <c r="K610" s="2"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -8573,7 +8584,7 @@
       <c r="J611" s="2"/>
       <c r="K611" s="2"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -8586,7 +8597,7 @@
       <c r="J612" s="2"/>
       <c r="K612" s="2"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -8599,7 +8610,7 @@
       <c r="J613" s="2"/>
       <c r="K613" s="2"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -8612,7 +8623,7 @@
       <c r="J614" s="2"/>
       <c r="K614" s="2"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -8625,7 +8636,7 @@
       <c r="J615" s="2"/>
       <c r="K615" s="2"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -8638,7 +8649,7 @@
       <c r="J616" s="2"/>
       <c r="K616" s="2"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -8651,7 +8662,7 @@
       <c r="J617" s="2"/>
       <c r="K617" s="2"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -8664,7 +8675,7 @@
       <c r="J618" s="2"/>
       <c r="K618" s="2"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -8677,7 +8688,7 @@
       <c r="J619" s="2"/>
       <c r="K619" s="2"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -8690,7 +8701,7 @@
       <c r="J620" s="2"/>
       <c r="K620" s="2"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -8703,7 +8714,7 @@
       <c r="J621" s="2"/>
       <c r="K621" s="2"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -8716,7 +8727,7 @@
       <c r="J622" s="2"/>
       <c r="K622" s="2"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -8729,7 +8740,7 @@
       <c r="J623" s="2"/>
       <c r="K623" s="2"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -8742,7 +8753,7 @@
       <c r="J624" s="2"/>
       <c r="K624" s="2"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -8755,7 +8766,7 @@
       <c r="J625" s="2"/>
       <c r="K625" s="2"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -8768,7 +8779,7 @@
       <c r="J626" s="2"/>
       <c r="K626" s="2"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -8781,7 +8792,7 @@
       <c r="J627" s="2"/>
       <c r="K627" s="2"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -8794,7 +8805,7 @@
       <c r="J628" s="2"/>
       <c r="K628" s="2"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -8807,7 +8818,7 @@
       <c r="J629" s="2"/>
       <c r="K629" s="2"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -8820,7 +8831,7 @@
       <c r="J630" s="2"/>
       <c r="K630" s="2"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -8833,7 +8844,7 @@
       <c r="J631" s="2"/>
       <c r="K631" s="2"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -8846,7 +8857,7 @@
       <c r="J632" s="2"/>
       <c r="K632" s="2"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -8859,7 +8870,7 @@
       <c r="J633" s="2"/>
       <c r="K633" s="2"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -8872,7 +8883,7 @@
       <c r="J634" s="2"/>
       <c r="K634" s="2"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -8885,7 +8896,7 @@
       <c r="J635" s="2"/>
       <c r="K635" s="2"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -8898,7 +8909,7 @@
       <c r="J636" s="2"/>
       <c r="K636" s="2"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -8911,7 +8922,7 @@
       <c r="J637" s="2"/>
       <c r="K637" s="2"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -8924,7 +8935,7 @@
       <c r="J638" s="2"/>
       <c r="K638" s="2"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -8937,7 +8948,7 @@
       <c r="J639" s="2"/>
       <c r="K639" s="2"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -8950,7 +8961,7 @@
       <c r="J640" s="2"/>
       <c r="K640" s="2"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -8963,7 +8974,7 @@
       <c r="J641" s="2"/>
       <c r="K641" s="2"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -8976,7 +8987,7 @@
       <c r="J642" s="2"/>
       <c r="K642" s="2"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -8989,7 +9000,7 @@
       <c r="J643" s="2"/>
       <c r="K643" s="2"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -9002,7 +9013,7 @@
       <c r="J644" s="2"/>
       <c r="K644" s="2"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -9015,7 +9026,7 @@
       <c r="J645" s="2"/>
       <c r="K645" s="2"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -9028,7 +9039,7 @@
       <c r="J646" s="2"/>
       <c r="K646" s="2"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -9041,7 +9052,7 @@
       <c r="J647" s="2"/>
       <c r="K647" s="2"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -9054,7 +9065,7 @@
       <c r="J648" s="2"/>
       <c r="K648" s="2"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -9067,7 +9078,7 @@
       <c r="J649" s="2"/>
       <c r="K649" s="2"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -9080,7 +9091,7 @@
       <c r="J650" s="2"/>
       <c r="K650" s="2"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -9093,7 +9104,7 @@
       <c r="J651" s="2"/>
       <c r="K651" s="2"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -9106,7 +9117,7 @@
       <c r="J652" s="2"/>
       <c r="K652" s="2"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -9119,7 +9130,7 @@
       <c r="J653" s="2"/>
       <c r="K653" s="2"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -9132,7 +9143,7 @@
       <c r="J654" s="2"/>
       <c r="K654" s="2"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -9145,7 +9156,7 @@
       <c r="J655" s="2"/>
       <c r="K655" s="2"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -9158,7 +9169,7 @@
       <c r="J656" s="2"/>
       <c r="K656" s="2"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -9171,7 +9182,7 @@
       <c r="J657" s="2"/>
       <c r="K657" s="2"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -9184,7 +9195,7 @@
       <c r="J658" s="2"/>
       <c r="K658" s="2"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -9197,7 +9208,7 @@
       <c r="J659" s="2"/>
       <c r="K659" s="2"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -9210,7 +9221,7 @@
       <c r="J660" s="2"/>
       <c r="K660" s="2"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -9223,7 +9234,7 @@
       <c r="J661" s="2"/>
       <c r="K661" s="2"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -9236,7 +9247,7 @@
       <c r="J662" s="2"/>
       <c r="K662" s="2"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -9249,7 +9260,7 @@
       <c r="J663" s="2"/>
       <c r="K663" s="2"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -9262,7 +9273,7 @@
       <c r="J664" s="2"/>
       <c r="K664" s="2"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -9275,7 +9286,7 @@
       <c r="J665" s="2"/>
       <c r="K665" s="2"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -9288,7 +9299,7 @@
       <c r="J666" s="2"/>
       <c r="K666" s="2"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -9301,7 +9312,7 @@
       <c r="J667" s="2"/>
       <c r="K667" s="2"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -9314,7 +9325,7 @@
       <c r="J668" s="2"/>
       <c r="K668" s="2"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -9327,7 +9338,7 @@
       <c r="J669" s="2"/>
       <c r="K669" s="2"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -9340,7 +9351,7 @@
       <c r="J670" s="2"/>
       <c r="K670" s="2"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -9353,7 +9364,7 @@
       <c r="J671" s="2"/>
       <c r="K671" s="2"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -9366,7 +9377,7 @@
       <c r="J672" s="2"/>
       <c r="K672" s="2"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -9379,7 +9390,7 @@
       <c r="J673" s="2"/>
       <c r="K673" s="2"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -9392,7 +9403,7 @@
       <c r="J674" s="2"/>
       <c r="K674" s="2"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -9405,7 +9416,7 @@
       <c r="J675" s="2"/>
       <c r="K675" s="2"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -9418,7 +9429,7 @@
       <c r="J676" s="2"/>
       <c r="K676" s="2"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -9431,7 +9442,7 @@
       <c r="J677" s="2"/>
       <c r="K677" s="2"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -9444,7 +9455,7 @@
       <c r="J678" s="2"/>
       <c r="K678" s="2"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -9457,7 +9468,7 @@
       <c r="J679" s="2"/>
       <c r="K679" s="2"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -9470,7 +9481,7 @@
       <c r="J680" s="2"/>
       <c r="K680" s="2"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -9483,7 +9494,7 @@
       <c r="J681" s="2"/>
       <c r="K681" s="2"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -9496,7 +9507,7 @@
       <c r="J682" s="2"/>
       <c r="K682" s="2"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -9509,7 +9520,7 @@
       <c r="J683" s="2"/>
       <c r="K683" s="2"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -9522,7 +9533,7 @@
       <c r="J684" s="2"/>
       <c r="K684" s="2"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -9535,7 +9546,7 @@
       <c r="J685" s="2"/>
       <c r="K685" s="2"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -9548,7 +9559,7 @@
       <c r="J686" s="2"/>
       <c r="K686" s="2"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -9561,7 +9572,7 @@
       <c r="J687" s="2"/>
       <c r="K687" s="2"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -9574,7 +9585,7 @@
       <c r="J688" s="2"/>
       <c r="K688" s="2"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -9587,7 +9598,7 @@
       <c r="J689" s="2"/>
       <c r="K689" s="2"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -9600,7 +9611,7 @@
       <c r="J690" s="2"/>
       <c r="K690" s="2"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -9613,7 +9624,7 @@
       <c r="J691" s="2"/>
       <c r="K691" s="2"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -9626,7 +9637,7 @@
       <c r="J692" s="2"/>
       <c r="K692" s="2"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -9639,7 +9650,7 @@
       <c r="J693" s="2"/>
       <c r="K693" s="2"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -9652,7 +9663,7 @@
       <c r="J694" s="2"/>
       <c r="K694" s="2"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -9665,7 +9676,7 @@
       <c r="J695" s="2"/>
       <c r="K695" s="2"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -9678,7 +9689,7 @@
       <c r="J696" s="2"/>
       <c r="K696" s="2"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -9691,7 +9702,7 @@
       <c r="J697" s="2"/>
       <c r="K697" s="2"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -9704,7 +9715,7 @@
       <c r="J698" s="2"/>
       <c r="K698" s="2"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -9717,7 +9728,7 @@
       <c r="J699" s="2"/>
       <c r="K699" s="2"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -9730,7 +9741,7 @@
       <c r="J700" s="2"/>
       <c r="K700" s="2"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -9743,7 +9754,7 @@
       <c r="J701" s="2"/>
       <c r="K701" s="2"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -9756,7 +9767,7 @@
       <c r="J702" s="2"/>
       <c r="K702" s="2"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -9769,7 +9780,7 @@
       <c r="J703" s="2"/>
       <c r="K703" s="2"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -9782,7 +9793,7 @@
       <c r="J704" s="2"/>
       <c r="K704" s="2"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -9795,7 +9806,7 @@
       <c r="J705" s="2"/>
       <c r="K705" s="2"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -9808,7 +9819,7 @@
       <c r="J706" s="2"/>
       <c r="K706" s="2"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -9821,7 +9832,7 @@
       <c r="J707" s="2"/>
       <c r="K707" s="2"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -9834,7 +9845,7 @@
       <c r="J708" s="2"/>
       <c r="K708" s="2"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -9847,7 +9858,7 @@
       <c r="J709" s="2"/>
       <c r="K709" s="2"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -9860,7 +9871,7 @@
       <c r="J710" s="2"/>
       <c r="K710" s="2"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -9873,7 +9884,7 @@
       <c r="J711" s="2"/>
       <c r="K711" s="2"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -9886,7 +9897,7 @@
       <c r="J712" s="2"/>
       <c r="K712" s="2"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -9899,7 +9910,7 @@
       <c r="J713" s="2"/>
       <c r="K713" s="2"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -9912,7 +9923,7 @@
       <c r="J714" s="2"/>
       <c r="K714" s="2"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -9925,7 +9936,7 @@
       <c r="J715" s="2"/>
       <c r="K715" s="2"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -9938,7 +9949,7 @@
       <c r="J716" s="2"/>
       <c r="K716" s="2"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -9951,7 +9962,7 @@
       <c r="J717" s="2"/>
       <c r="K717" s="2"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -9964,7 +9975,7 @@
       <c r="J718" s="2"/>
       <c r="K718" s="2"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -9977,7 +9988,7 @@
       <c r="J719" s="2"/>
       <c r="K719" s="2"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -9990,7 +10001,7 @@
       <c r="J720" s="2"/>
       <c r="K720" s="2"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -10003,7 +10014,7 @@
       <c r="J721" s="2"/>
       <c r="K721" s="2"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -10016,7 +10027,7 @@
       <c r="J722" s="2"/>
       <c r="K722" s="2"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -10029,7 +10040,7 @@
       <c r="J723" s="2"/>
       <c r="K723" s="2"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -10042,7 +10053,7 @@
       <c r="J724" s="2"/>
       <c r="K724" s="2"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -10055,7 +10066,7 @@
       <c r="J725" s="2"/>
       <c r="K725" s="2"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -10068,7 +10079,7 @@
       <c r="J726" s="2"/>
       <c r="K726" s="2"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -10081,7 +10092,7 @@
       <c r="J727" s="2"/>
       <c r="K727" s="2"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -10094,7 +10105,7 @@
       <c r="J728" s="2"/>
       <c r="K728" s="2"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -10107,7 +10118,7 @@
       <c r="J729" s="2"/>
       <c r="K729" s="2"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -10120,7 +10131,7 @@
       <c r="J730" s="2"/>
       <c r="K730" s="2"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -10133,7 +10144,7 @@
       <c r="J731" s="2"/>
       <c r="K731" s="2"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -10146,7 +10157,7 @@
       <c r="J732" s="2"/>
       <c r="K732" s="2"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -10159,7 +10170,7 @@
       <c r="J733" s="2"/>
       <c r="K733" s="2"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -10172,7 +10183,7 @@
       <c r="J734" s="2"/>
       <c r="K734" s="2"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -10185,7 +10196,7 @@
       <c r="J735" s="2"/>
       <c r="K735" s="2"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -10198,7 +10209,7 @@
       <c r="J736" s="2"/>
       <c r="K736" s="2"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -10211,7 +10222,7 @@
       <c r="J737" s="2"/>
       <c r="K737" s="2"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -10224,7 +10235,7 @@
       <c r="J738" s="2"/>
       <c r="K738" s="2"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -10237,7 +10248,7 @@
       <c r="J739" s="2"/>
       <c r="K739" s="2"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -10250,7 +10261,7 @@
       <c r="J740" s="2"/>
       <c r="K740" s="2"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -10263,7 +10274,7 @@
       <c r="J741" s="2"/>
       <c r="K741" s="2"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -10276,7 +10287,7 @@
       <c r="J742" s="2"/>
       <c r="K742" s="2"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -10289,7 +10300,7 @@
       <c r="J743" s="2"/>
       <c r="K743" s="2"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -10302,7 +10313,7 @@
       <c r="J744" s="2"/>
       <c r="K744" s="2"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -10315,7 +10326,7 @@
       <c r="J745" s="2"/>
       <c r="K745" s="2"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -10328,7 +10339,7 @@
       <c r="J746" s="2"/>
       <c r="K746" s="2"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -10341,7 +10352,7 @@
       <c r="J747" s="2"/>
       <c r="K747" s="2"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -10354,7 +10365,7 @@
       <c r="J748" s="2"/>
       <c r="K748" s="2"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -10367,7 +10378,7 @@
       <c r="J749" s="2"/>
       <c r="K749" s="2"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -10380,7 +10391,7 @@
       <c r="J750" s="2"/>
       <c r="K750" s="2"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -10393,7 +10404,7 @@
       <c r="J751" s="2"/>
       <c r="K751" s="2"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -10406,7 +10417,7 @@
       <c r="J752" s="2"/>
       <c r="K752" s="2"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -10419,7 +10430,7 @@
       <c r="J753" s="2"/>
       <c r="K753" s="2"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -10432,7 +10443,7 @@
       <c r="J754" s="2"/>
       <c r="K754" s="2"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -10445,7 +10456,7 @@
       <c r="J755" s="2"/>
       <c r="K755" s="2"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -10458,7 +10469,7 @@
       <c r="J756" s="2"/>
       <c r="K756" s="2"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -10471,7 +10482,7 @@
       <c r="J757" s="2"/>
       <c r="K757" s="2"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -10484,7 +10495,7 @@
       <c r="J758" s="2"/>
       <c r="K758" s="2"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -10497,7 +10508,7 @@
       <c r="J759" s="2"/>
       <c r="K759" s="2"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -10510,7 +10521,7 @@
       <c r="J760" s="2"/>
       <c r="K760" s="2"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -10523,7 +10534,7 @@
       <c r="J761" s="2"/>
       <c r="K761" s="2"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -10536,7 +10547,7 @@
       <c r="J762" s="2"/>
       <c r="K762" s="2"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -10549,7 +10560,7 @@
       <c r="J763" s="2"/>
       <c r="K763" s="2"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -10562,7 +10573,7 @@
       <c r="J764" s="2"/>
       <c r="K764" s="2"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -10575,7 +10586,7 @@
       <c r="J765" s="2"/>
       <c r="K765" s="2"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -10588,7 +10599,7 @@
       <c r="J766" s="2"/>
       <c r="K766" s="2"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -10601,7 +10612,7 @@
       <c r="J767" s="2"/>
       <c r="K767" s="2"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -10614,7 +10625,7 @@
       <c r="J768" s="2"/>
       <c r="K768" s="2"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -10627,7 +10638,7 @@
       <c r="J769" s="2"/>
       <c r="K769" s="2"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -10640,7 +10651,7 @@
       <c r="J770" s="2"/>
       <c r="K770" s="2"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -10653,7 +10664,7 @@
       <c r="J771" s="2"/>
       <c r="K771" s="2"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -10666,7 +10677,7 @@
       <c r="J772" s="2"/>
       <c r="K772" s="2"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -10679,7 +10690,7 @@
       <c r="J773" s="2"/>
       <c r="K773" s="2"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -10692,7 +10703,7 @@
       <c r="J774" s="2"/>
       <c r="K774" s="2"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -10705,7 +10716,7 @@
       <c r="J775" s="2"/>
       <c r="K775" s="2"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -10718,7 +10729,7 @@
       <c r="J776" s="2"/>
       <c r="K776" s="2"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -10731,7 +10742,7 @@
       <c r="J777" s="2"/>
       <c r="K777" s="2"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -10744,7 +10755,7 @@
       <c r="J778" s="2"/>
       <c r="K778" s="2"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -10757,7 +10768,7 @@
       <c r="J779" s="2"/>
       <c r="K779" s="2"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -10770,7 +10781,7 @@
       <c r="J780" s="2"/>
       <c r="K780" s="2"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -10783,7 +10794,7 @@
       <c r="J781" s="2"/>
       <c r="K781" s="2"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -10796,7 +10807,7 @@
       <c r="J782" s="2"/>
       <c r="K782" s="2"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -10809,7 +10820,7 @@
       <c r="J783" s="2"/>
       <c r="K783" s="2"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -10822,7 +10833,7 @@
       <c r="J784" s="2"/>
       <c r="K784" s="2"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -10835,7 +10846,7 @@
       <c r="J785" s="2"/>
       <c r="K785" s="2"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -10848,7 +10859,7 @@
       <c r="J786" s="2"/>
       <c r="K786" s="2"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -10861,7 +10872,7 @@
       <c r="J787" s="2"/>
       <c r="K787" s="2"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -10874,7 +10885,7 @@
       <c r="J788" s="2"/>
       <c r="K788" s="2"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -10887,7 +10898,7 @@
       <c r="J789" s="2"/>
       <c r="K789" s="2"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -10900,7 +10911,7 @@
       <c r="J790" s="2"/>
       <c r="K790" s="2"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -10913,7 +10924,7 @@
       <c r="J791" s="2"/>
       <c r="K791" s="2"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -10926,7 +10937,7 @@
       <c r="J792" s="2"/>
       <c r="K792" s="2"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -10939,7 +10950,7 @@
       <c r="J793" s="2"/>
       <c r="K793" s="2"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -10952,7 +10963,7 @@
       <c r="J794" s="2"/>
       <c r="K794" s="2"/>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -10965,7 +10976,7 @@
       <c r="J795" s="2"/>
       <c r="K795" s="2"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -10978,7 +10989,7 @@
       <c r="J796" s="2"/>
       <c r="K796" s="2"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -10991,7 +11002,7 @@
       <c r="J797" s="2"/>
       <c r="K797" s="2"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -11004,7 +11015,7 @@
       <c r="J798" s="2"/>
       <c r="K798" s="2"/>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -11017,7 +11028,7 @@
       <c r="J799" s="2"/>
       <c r="K799" s="2"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -11030,7 +11041,7 @@
       <c r="J800" s="2"/>
       <c r="K800" s="2"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -11043,7 +11054,7 @@
       <c r="J801" s="2"/>
       <c r="K801" s="2"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -11056,7 +11067,7 @@
       <c r="J802" s="2"/>
       <c r="K802" s="2"/>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -11069,7 +11080,7 @@
       <c r="J803" s="2"/>
       <c r="K803" s="2"/>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -11082,7 +11093,7 @@
       <c r="J804" s="2"/>
       <c r="K804" s="2"/>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -11095,7 +11106,7 @@
       <c r="J805" s="2"/>
       <c r="K805" s="2"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -11108,7 +11119,7 @@
       <c r="J806" s="2"/>
       <c r="K806" s="2"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -11121,7 +11132,7 @@
       <c r="J807" s="2"/>
       <c r="K807" s="2"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -11134,7 +11145,7 @@
       <c r="J808" s="2"/>
       <c r="K808" s="2"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -11147,7 +11158,7 @@
       <c r="J809" s="2"/>
       <c r="K809" s="2"/>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -11160,7 +11171,7 @@
       <c r="J810" s="2"/>
       <c r="K810" s="2"/>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -11173,7 +11184,7 @@
       <c r="J811" s="2"/>
       <c r="K811" s="2"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -11186,7 +11197,7 @@
       <c r="J812" s="2"/>
       <c r="K812" s="2"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -11199,7 +11210,7 @@
       <c r="J813" s="2"/>
       <c r="K813" s="2"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -11212,7 +11223,7 @@
       <c r="J814" s="2"/>
       <c r="K814" s="2"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -11225,7 +11236,7 @@
       <c r="J815" s="2"/>
       <c r="K815" s="2"/>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -11238,7 +11249,7 @@
       <c r="J816" s="2"/>
       <c r="K816" s="2"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -11251,7 +11262,7 @@
       <c r="J817" s="2"/>
       <c r="K817" s="2"/>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -11264,7 +11275,7 @@
       <c r="J818" s="2"/>
       <c r="K818" s="2"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -11277,7 +11288,7 @@
       <c r="J819" s="2"/>
       <c r="K819" s="2"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -11290,7 +11301,7 @@
       <c r="J820" s="2"/>
       <c r="K820" s="2"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -11303,7 +11314,7 @@
       <c r="J821" s="2"/>
       <c r="K821" s="2"/>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -11316,7 +11327,7 @@
       <c r="J822" s="2"/>
       <c r="K822" s="2"/>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -11329,7 +11340,7 @@
       <c r="J823" s="2"/>
       <c r="K823" s="2"/>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -11342,7 +11353,7 @@
       <c r="J824" s="2"/>
       <c r="K824" s="2"/>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -11355,7 +11366,7 @@
       <c r="J825" s="2"/>
       <c r="K825" s="2"/>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -11368,7 +11379,7 @@
       <c r="J826" s="2"/>
       <c r="K826" s="2"/>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -11381,7 +11392,7 @@
       <c r="J827" s="2"/>
       <c r="K827" s="2"/>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -11394,7 +11405,7 @@
       <c r="J828" s="2"/>
       <c r="K828" s="2"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -11407,7 +11418,7 @@
       <c r="J829" s="2"/>
       <c r="K829" s="2"/>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -11420,7 +11431,7 @@
       <c r="J830" s="2"/>
       <c r="K830" s="2"/>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -11433,7 +11444,7 @@
       <c r="J831" s="2"/>
       <c r="K831" s="2"/>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -11446,7 +11457,7 @@
       <c r="J832" s="2"/>
       <c r="K832" s="2"/>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -11459,7 +11470,7 @@
       <c r="J833" s="2"/>
       <c r="K833" s="2"/>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -11472,7 +11483,7 @@
       <c r="J834" s="2"/>
       <c r="K834" s="2"/>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -11485,7 +11496,7 @@
       <c r="J835" s="2"/>
       <c r="K835" s="2"/>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -11498,7 +11509,7 @@
       <c r="J836" s="2"/>
       <c r="K836" s="2"/>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -11511,7 +11522,7 @@
       <c r="J837" s="2"/>
       <c r="K837" s="2"/>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -11524,7 +11535,7 @@
       <c r="J838" s="2"/>
       <c r="K838" s="2"/>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -11537,7 +11548,7 @@
       <c r="J839" s="2"/>
       <c r="K839" s="2"/>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -11550,7 +11561,7 @@
       <c r="J840" s="2"/>
       <c r="K840" s="2"/>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -11563,7 +11574,7 @@
       <c r="J841" s="2"/>
       <c r="K841" s="2"/>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -11576,7 +11587,7 @@
       <c r="J842" s="2"/>
       <c r="K842" s="2"/>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -11589,7 +11600,7 @@
       <c r="J843" s="2"/>
       <c r="K843" s="2"/>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -11602,7 +11613,7 @@
       <c r="J844" s="2"/>
       <c r="K844" s="2"/>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -11615,7 +11626,7 @@
       <c r="J845" s="2"/>
       <c r="K845" s="2"/>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -11628,7 +11639,7 @@
       <c r="J846" s="2"/>
       <c r="K846" s="2"/>
     </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -11641,7 +11652,7 @@
       <c r="J847" s="2"/>
       <c r="K847" s="2"/>
     </row>
-    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -11654,7 +11665,7 @@
       <c r="J848" s="2"/>
       <c r="K848" s="2"/>
     </row>
-    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -11667,7 +11678,7 @@
       <c r="J849" s="2"/>
       <c r="K849" s="2"/>
     </row>
-    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -11680,7 +11691,7 @@
       <c r="J850" s="2"/>
       <c r="K850" s="2"/>
     </row>
-    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -11693,7 +11704,7 @@
       <c r="J851" s="2"/>
       <c r="K851" s="2"/>
     </row>
-    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -11706,7 +11717,7 @@
       <c r="J852" s="2"/>
       <c r="K852" s="2"/>
     </row>
-    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -11719,7 +11730,7 @@
       <c r="J853" s="2"/>
       <c r="K853" s="2"/>
     </row>
-    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -11732,7 +11743,7 @@
       <c r="J854" s="2"/>
       <c r="K854" s="2"/>
     </row>
-    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -11745,7 +11756,7 @@
       <c r="J855" s="2"/>
       <c r="K855" s="2"/>
     </row>
-    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -11758,7 +11769,7 @@
       <c r="J856" s="2"/>
       <c r="K856" s="2"/>
     </row>
-    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -11771,7 +11782,7 @@
       <c r="J857" s="2"/>
       <c r="K857" s="2"/>
     </row>
-    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -11784,7 +11795,7 @@
       <c r="J858" s="2"/>
       <c r="K858" s="2"/>
     </row>
-    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -11797,7 +11808,7 @@
       <c r="J859" s="2"/>
       <c r="K859" s="2"/>
     </row>
-    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -11810,7 +11821,7 @@
       <c r="J860" s="2"/>
       <c r="K860" s="2"/>
     </row>
-    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -11823,7 +11834,7 @@
       <c r="J861" s="2"/>
       <c r="K861" s="2"/>
     </row>
-    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -11836,7 +11847,7 @@
       <c r="J862" s="2"/>
       <c r="K862" s="2"/>
     </row>
-    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -11849,7 +11860,7 @@
       <c r="J863" s="2"/>
       <c r="K863" s="2"/>
     </row>
-    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -11862,7 +11873,7 @@
       <c r="J864" s="2"/>
       <c r="K864" s="2"/>
     </row>
-    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -11875,7 +11886,7 @@
       <c r="J865" s="2"/>
       <c r="K865" s="2"/>
     </row>
-    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -11888,7 +11899,7 @@
       <c r="J866" s="2"/>
       <c r="K866" s="2"/>
     </row>
-    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -11901,7 +11912,7 @@
       <c r="J867" s="2"/>
       <c r="K867" s="2"/>
     </row>
-    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -11914,7 +11925,7 @@
       <c r="J868" s="2"/>
       <c r="K868" s="2"/>
     </row>
-    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -11927,7 +11938,7 @@
       <c r="J869" s="2"/>
       <c r="K869" s="2"/>
     </row>
-    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -11940,7 +11951,7 @@
       <c r="J870" s="2"/>
       <c r="K870" s="2"/>
     </row>
-    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -11953,7 +11964,7 @@
       <c r="J871" s="2"/>
       <c r="K871" s="2"/>
     </row>
-    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -11966,7 +11977,7 @@
       <c r="J872" s="2"/>
       <c r="K872" s="2"/>
     </row>
-    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -11979,7 +11990,7 @@
       <c r="J873" s="2"/>
       <c r="K873" s="2"/>
     </row>
-    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -11992,7 +12003,7 @@
       <c r="J874" s="2"/>
       <c r="K874" s="2"/>
     </row>
-    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -12005,7 +12016,7 @@
       <c r="J875" s="2"/>
       <c r="K875" s="2"/>
     </row>
-    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -12018,7 +12029,7 @@
       <c r="J876" s="2"/>
       <c r="K876" s="2"/>
     </row>
-    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -12031,7 +12042,7 @@
       <c r="J877" s="2"/>
       <c r="K877" s="2"/>
     </row>
-    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -12044,7 +12055,7 @@
       <c r="J878" s="2"/>
       <c r="K878" s="2"/>
     </row>
-    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -12057,7 +12068,7 @@
       <c r="J879" s="2"/>
       <c r="K879" s="2"/>
     </row>
-    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -12070,7 +12081,7 @@
       <c r="J880" s="2"/>
       <c r="K880" s="2"/>
     </row>
-    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -12083,7 +12094,7 @@
       <c r="J881" s="2"/>
       <c r="K881" s="2"/>
     </row>
-    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -12096,7 +12107,7 @@
       <c r="J882" s="2"/>
       <c r="K882" s="2"/>
     </row>
-    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -12109,7 +12120,7 @@
       <c r="J883" s="2"/>
       <c r="K883" s="2"/>
     </row>
-    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -12122,7 +12133,7 @@
       <c r="J884" s="2"/>
       <c r="K884" s="2"/>
     </row>
-    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -12135,7 +12146,7 @@
       <c r="J885" s="2"/>
       <c r="K885" s="2"/>
     </row>
-    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -12148,7 +12159,7 @@
       <c r="J886" s="2"/>
       <c r="K886" s="2"/>
     </row>
-    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -12161,7 +12172,7 @@
       <c r="J887" s="2"/>
       <c r="K887" s="2"/>
     </row>
-    <row r="888" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -12174,7 +12185,7 @@
       <c r="J888" s="2"/>
       <c r="K888" s="2"/>
     </row>
-    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -12187,7 +12198,7 @@
       <c r="J889" s="2"/>
       <c r="K889" s="2"/>
     </row>
-    <row r="890" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -12200,7 +12211,7 @@
       <c r="J890" s="2"/>
       <c r="K890" s="2"/>
     </row>
-    <row r="891" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -12213,7 +12224,7 @@
       <c r="J891" s="2"/>
       <c r="K891" s="2"/>
     </row>
-    <row r="892" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -12226,7 +12237,7 @@
       <c r="J892" s="2"/>
       <c r="K892" s="2"/>
     </row>
-    <row r="893" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -12239,7 +12250,7 @@
       <c r="J893" s="2"/>
       <c r="K893" s="2"/>
     </row>
-    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -12252,7 +12263,7 @@
       <c r="J894" s="2"/>
       <c r="K894" s="2"/>
     </row>
-    <row r="895" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -12265,7 +12276,7 @@
       <c r="J895" s="2"/>
       <c r="K895" s="2"/>
     </row>
-    <row r="896" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -12278,7 +12289,7 @@
       <c r="J896" s="2"/>
       <c r="K896" s="2"/>
     </row>
-    <row r="897" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -12291,7 +12302,7 @@
       <c r="J897" s="2"/>
       <c r="K897" s="2"/>
     </row>
-    <row r="898" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -12304,7 +12315,7 @@
       <c r="J898" s="2"/>
       <c r="K898" s="2"/>
     </row>
-    <row r="899" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -12317,7 +12328,7 @@
       <c r="J899" s="2"/>
       <c r="K899" s="2"/>
     </row>
-    <row r="900" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -12330,7 +12341,7 @@
       <c r="J900" s="2"/>
       <c r="K900" s="2"/>
     </row>
-    <row r="901" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -12343,7 +12354,7 @@
       <c r="J901" s="2"/>
       <c r="K901" s="2"/>
     </row>
-    <row r="902" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -12356,7 +12367,7 @@
       <c r="J902" s="2"/>
       <c r="K902" s="2"/>
     </row>
-    <row r="903" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -12369,7 +12380,7 @@
       <c r="J903" s="2"/>
       <c r="K903" s="2"/>
     </row>
-    <row r="904" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -12382,7 +12393,7 @@
       <c r="J904" s="2"/>
       <c r="K904" s="2"/>
     </row>
-    <row r="905" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -12395,7 +12406,7 @@
       <c r="J905" s="2"/>
       <c r="K905" s="2"/>
     </row>
-    <row r="906" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -12408,7 +12419,7 @@
       <c r="J906" s="2"/>
       <c r="K906" s="2"/>
     </row>
-    <row r="907" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -12421,7 +12432,7 @@
       <c r="J907" s="2"/>
       <c r="K907" s="2"/>
     </row>
-    <row r="908" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -12434,7 +12445,7 @@
       <c r="J908" s="2"/>
       <c r="K908" s="2"/>
     </row>
-    <row r="909" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -12447,7 +12458,7 @@
       <c r="J909" s="2"/>
       <c r="K909" s="2"/>
     </row>
-    <row r="910" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -12460,7 +12471,7 @@
       <c r="J910" s="2"/>
       <c r="K910" s="2"/>
     </row>
-    <row r="911" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -12473,7 +12484,7 @@
       <c r="J911" s="2"/>
       <c r="K911" s="2"/>
     </row>
-    <row r="912" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -12486,7 +12497,7 @@
       <c r="J912" s="2"/>
       <c r="K912" s="2"/>
     </row>
-    <row r="913" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -12499,7 +12510,7 @@
       <c r="J913" s="2"/>
       <c r="K913" s="2"/>
     </row>
-    <row r="914" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -12512,7 +12523,7 @@
       <c r="J914" s="2"/>
       <c r="K914" s="2"/>
     </row>
-    <row r="915" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -12525,7 +12536,7 @@
       <c r="J915" s="2"/>
       <c r="K915" s="2"/>
     </row>
-    <row r="916" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -12538,7 +12549,7 @@
       <c r="J916" s="2"/>
       <c r="K916" s="2"/>
     </row>
-    <row r="917" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -12551,7 +12562,7 @@
       <c r="J917" s="2"/>
       <c r="K917" s="2"/>
     </row>
-    <row r="918" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -12564,7 +12575,7 @@
       <c r="J918" s="2"/>
       <c r="K918" s="2"/>
     </row>
-    <row r="919" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -12577,7 +12588,7 @@
       <c r="J919" s="2"/>
       <c r="K919" s="2"/>
     </row>
-    <row r="920" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -12590,7 +12601,7 @@
       <c r="J920" s="2"/>
       <c r="K920" s="2"/>
     </row>
-    <row r="921" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -12603,7 +12614,7 @@
       <c r="J921" s="2"/>
       <c r="K921" s="2"/>
     </row>
-    <row r="922" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -12616,7 +12627,7 @@
       <c r="J922" s="2"/>
       <c r="K922" s="2"/>
     </row>
-    <row r="923" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -12629,7 +12640,7 @@
       <c r="J923" s="2"/>
       <c r="K923" s="2"/>
     </row>
-    <row r="924" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -12642,7 +12653,7 @@
       <c r="J924" s="2"/>
       <c r="K924" s="2"/>
     </row>
-    <row r="925" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -12655,7 +12666,7 @@
       <c r="J925" s="2"/>
       <c r="K925" s="2"/>
     </row>
-    <row r="926" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -12668,7 +12679,7 @@
       <c r="J926" s="2"/>
       <c r="K926" s="2"/>
     </row>
-    <row r="927" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -12681,7 +12692,7 @@
       <c r="J927" s="2"/>
       <c r="K927" s="2"/>
     </row>
-    <row r="928" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -12694,7 +12705,7 @@
       <c r="J928" s="2"/>
       <c r="K928" s="2"/>
     </row>
-    <row r="929" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -12707,7 +12718,7 @@
       <c r="J929" s="2"/>
       <c r="K929" s="2"/>
     </row>
-    <row r="930" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -12720,7 +12731,7 @@
       <c r="J930" s="2"/>
       <c r="K930" s="2"/>
     </row>
-    <row r="931" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -12733,7 +12744,7 @@
       <c r="J931" s="2"/>
       <c r="K931" s="2"/>
     </row>
-    <row r="932" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -12746,7 +12757,7 @@
       <c r="J932" s="2"/>
       <c r="K932" s="2"/>
     </row>
-    <row r="933" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -12759,7 +12770,7 @@
       <c r="J933" s="2"/>
       <c r="K933" s="2"/>
     </row>
-    <row r="934" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -12772,7 +12783,7 @@
       <c r="J934" s="2"/>
       <c r="K934" s="2"/>
     </row>
-    <row r="935" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -12785,7 +12796,7 @@
       <c r="J935" s="2"/>
       <c r="K935" s="2"/>
     </row>
-    <row r="936" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -12798,7 +12809,7 @@
       <c r="J936" s="2"/>
       <c r="K936" s="2"/>
     </row>
-    <row r="937" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -12811,7 +12822,7 @@
       <c r="J937" s="2"/>
       <c r="K937" s="2"/>
     </row>
-    <row r="938" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -12824,7 +12835,7 @@
       <c r="J938" s="2"/>
       <c r="K938" s="2"/>
     </row>
-    <row r="939" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -12837,7 +12848,7 @@
       <c r="J939" s="2"/>
       <c r="K939" s="2"/>
     </row>
-    <row r="940" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -12850,7 +12861,7 @@
       <c r="J940" s="2"/>
       <c r="K940" s="2"/>
     </row>
-    <row r="941" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -12863,7 +12874,7 @@
       <c r="J941" s="2"/>
       <c r="K941" s="2"/>
     </row>
-    <row r="942" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -12876,7 +12887,7 @@
       <c r="J942" s="2"/>
       <c r="K942" s="2"/>
     </row>
-    <row r="943" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -12889,7 +12900,7 @@
       <c r="J943" s="2"/>
       <c r="K943" s="2"/>
     </row>
-    <row r="944" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -12902,7 +12913,7 @@
       <c r="J944" s="2"/>
       <c r="K944" s="2"/>
     </row>
-    <row r="945" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -12915,7 +12926,7 @@
       <c r="J945" s="2"/>
       <c r="K945" s="2"/>
     </row>
-    <row r="946" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -12928,7 +12939,7 @@
       <c r="J946" s="2"/>
       <c r="K946" s="2"/>
     </row>
-    <row r="947" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -12941,7 +12952,7 @@
       <c r="J947" s="2"/>
       <c r="K947" s="2"/>
     </row>
-    <row r="948" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -12954,7 +12965,7 @@
       <c r="J948" s="2"/>
       <c r="K948" s="2"/>
     </row>
-    <row r="949" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -12967,7 +12978,7 @@
       <c r="J949" s="2"/>
       <c r="K949" s="2"/>
     </row>
-    <row r="950" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -12980,7 +12991,7 @@
       <c r="J950" s="2"/>
       <c r="K950" s="2"/>
     </row>
-    <row r="951" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -12993,7 +13004,7 @@
       <c r="J951" s="2"/>
       <c r="K951" s="2"/>
     </row>
-    <row r="952" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -13006,7 +13017,7 @@
       <c r="J952" s="2"/>
       <c r="K952" s="2"/>
     </row>
-    <row r="953" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -13019,7 +13030,7 @@
       <c r="J953" s="2"/>
       <c r="K953" s="2"/>
     </row>
-    <row r="954" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -13032,7 +13043,7 @@
       <c r="J954" s="2"/>
       <c r="K954" s="2"/>
     </row>
-    <row r="955" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -13045,7 +13056,7 @@
       <c r="J955" s="2"/>
       <c r="K955" s="2"/>
     </row>
-    <row r="956" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -13058,7 +13069,7 @@
       <c r="J956" s="2"/>
       <c r="K956" s="2"/>
     </row>
-    <row r="957" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -13074,4 +13085,134 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160489E1-8783-4673-993E-638FCDAD870D}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1188947</v>
+      </c>
+      <c r="C2">
+        <v>658941</v>
+      </c>
+      <c r="D2">
+        <v>1142362</v>
+      </c>
+      <c r="E2">
+        <v>1062</v>
+      </c>
+      <c r="F2">
+        <v>1201</v>
+      </c>
+      <c r="G2">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>926627</v>
+      </c>
+      <c r="C3">
+        <v>880</v>
+      </c>
+      <c r="D3">
+        <v>909794</v>
+      </c>
+      <c r="E3">
+        <v>1328106</v>
+      </c>
+      <c r="F3">
+        <v>720</v>
+      </c>
+      <c r="G3">
+        <v>1398314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>950</v>
+      </c>
+      <c r="C4">
+        <v>1080</v>
+      </c>
+      <c r="D4">
+        <v>2012</v>
+      </c>
+      <c r="E4">
+        <v>2464</v>
+      </c>
+      <c r="F4">
+        <v>1154</v>
+      </c>
+      <c r="G4">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>310</v>
+      </c>
+      <c r="C5">
+        <v>1060</v>
+      </c>
+      <c r="D5">
+        <v>314</v>
+      </c>
+      <c r="E5">
+        <v>1143</v>
+      </c>
+      <c r="F5">
+        <v>1072</v>
+      </c>
+      <c r="G5">
+        <v>1212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/8547Saini/assignments/assignment1.xlsx
+++ b/docs/8547Saini/assignments/assignment1.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donwen.CORPDOM\WS\UWind\uwinds\docs\8547Saini\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717A8D92-E90C-4681-BB6D-3B83EAC8C486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AC1298-9779-4249-8969-3F078B5AF430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hashtables" sheetId="1" r:id="rId1"/>
-    <sheet name="Trees" sheetId="2" r:id="rId2"/>
+    <sheet name="Trees" sheetId="2" r:id="rId1"/>
+    <sheet name="Hashtables" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -413,6 +413,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160489E1-8783-4673-993E-638FCDAD870D}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1159902</v>
+      </c>
+      <c r="C2">
+        <v>655528</v>
+      </c>
+      <c r="D2">
+        <v>1159699</v>
+      </c>
+      <c r="E2">
+        <v>961</v>
+      </c>
+      <c r="F2">
+        <v>1162</v>
+      </c>
+      <c r="G2">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>736</v>
+      </c>
+      <c r="C3">
+        <v>1144</v>
+      </c>
+      <c r="D3">
+        <v>953</v>
+      </c>
+      <c r="E3">
+        <v>1613</v>
+      </c>
+      <c r="F3">
+        <v>854</v>
+      </c>
+      <c r="G3">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>898</v>
+      </c>
+      <c r="C4">
+        <v>1016</v>
+      </c>
+      <c r="D4">
+        <v>1899</v>
+      </c>
+      <c r="E4">
+        <v>1784</v>
+      </c>
+      <c r="F4">
+        <v>1212</v>
+      </c>
+      <c r="G4">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>313</v>
+      </c>
+      <c r="C5">
+        <v>1345</v>
+      </c>
+      <c r="D5">
+        <v>460</v>
+      </c>
+      <c r="E5">
+        <v>2090</v>
+      </c>
+      <c r="F5">
+        <v>1947</v>
+      </c>
+      <c r="G5">
+        <v>1440</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K957"/>
   <sheetViews>
@@ -13085,134 +13213,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160489E1-8783-4673-993E-638FCDAD870D}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>1188947</v>
-      </c>
-      <c r="C2">
-        <v>658941</v>
-      </c>
-      <c r="D2">
-        <v>1142362</v>
-      </c>
-      <c r="E2">
-        <v>1062</v>
-      </c>
-      <c r="F2">
-        <v>1201</v>
-      </c>
-      <c r="G2">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>926627</v>
-      </c>
-      <c r="C3">
-        <v>880</v>
-      </c>
-      <c r="D3">
-        <v>909794</v>
-      </c>
-      <c r="E3">
-        <v>1328106</v>
-      </c>
-      <c r="F3">
-        <v>720</v>
-      </c>
-      <c r="G3">
-        <v>1398314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>950</v>
-      </c>
-      <c r="C4">
-        <v>1080</v>
-      </c>
-      <c r="D4">
-        <v>2012</v>
-      </c>
-      <c r="E4">
-        <v>2464</v>
-      </c>
-      <c r="F4">
-        <v>1154</v>
-      </c>
-      <c r="G4">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>310</v>
-      </c>
-      <c r="C5">
-        <v>1060</v>
-      </c>
-      <c r="D5">
-        <v>314</v>
-      </c>
-      <c r="E5">
-        <v>1143</v>
-      </c>
-      <c r="F5">
-        <v>1072</v>
-      </c>
-      <c r="G5">
-        <v>1212</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>